--- a/صيدليات دكتور مصطفي طلعت_2026-01-06_20-58.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-06_20-58.xlsx
@@ -468,6 +468,9 @@
   </si>
   <si>
     <t>ZISROCIN 500MG 3 CAP</t>
+  </si>
+  <si>
+    <t>ZOVIRAX D.S 400MG/5ML SUSP.100 ML</t>
   </si>
   <si>
     <t>ايفا كريم 20 جم</t>
@@ -4093,13 +4096,13 @@
       <c r="F118" s="7"/>
       <c r="G118" s="7"/>
       <c t="s" r="H118" s="8">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="I118" s="8"/>
       <c r="J118" s="8"/>
       <c r="K118" s="8"/>
       <c r="L118" s="9">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="M118" s="9"/>
       <c t="s" r="N118" s="7">
@@ -4119,7 +4122,7 @@
       <c r="F119" s="7"/>
       <c r="G119" s="7"/>
       <c t="s" r="H119" s="8">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="I119" s="8"/>
       <c r="J119" s="8"/>
@@ -4145,13 +4148,13 @@
       <c r="F120" s="7"/>
       <c r="G120" s="7"/>
       <c t="s" r="H120" s="8">
-        <v>156</v>
+        <v>25</v>
       </c>
       <c r="I120" s="8"/>
       <c r="J120" s="8"/>
       <c r="K120" s="8"/>
       <c r="L120" s="9">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="M120" s="9"/>
       <c t="s" r="N120" s="7">
@@ -4163,7 +4166,7 @@
         <v>118</v>
       </c>
       <c t="s" r="B121" s="7">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C121" s="7"/>
       <c r="D121" s="7"/>
@@ -4171,13 +4174,13 @@
       <c r="F121" s="7"/>
       <c r="G121" s="7"/>
       <c t="s" r="H121" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I121" s="8"/>
       <c r="J121" s="8"/>
       <c r="K121" s="8"/>
       <c r="L121" s="9">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M121" s="9"/>
       <c t="s" r="N121" s="7">
@@ -4189,7 +4192,7 @@
         <v>119</v>
       </c>
       <c t="s" r="B122" s="7">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C122" s="7"/>
       <c r="D122" s="7"/>
@@ -4197,13 +4200,13 @@
       <c r="F122" s="7"/>
       <c r="G122" s="7"/>
       <c t="s" r="H122" s="8">
-        <v>44</v>
+        <v>159</v>
       </c>
       <c r="I122" s="8"/>
       <c r="J122" s="8"/>
       <c r="K122" s="8"/>
       <c r="L122" s="9">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M122" s="9"/>
       <c t="s" r="N122" s="7">
@@ -4223,17 +4226,17 @@
       <c r="F123" s="7"/>
       <c r="G123" s="7"/>
       <c t="s" r="H123" s="8">
-        <v>161</v>
+        <v>44</v>
       </c>
       <c r="I123" s="8"/>
       <c r="J123" s="8"/>
       <c r="K123" s="8"/>
       <c r="L123" s="9">
-        <v>84</v>
+        <v>10</v>
       </c>
       <c r="M123" s="9"/>
       <c t="s" r="N123" s="7">
-        <v>162</v>
+        <v>9</v>
       </c>
     </row>
     <row r="124" ht="24.75" customHeight="1">
@@ -4241,7 +4244,7 @@
         <v>121</v>
       </c>
       <c t="s" r="B124" s="7">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C124" s="7"/>
       <c r="D124" s="7"/>
@@ -4249,17 +4252,17 @@
       <c r="F124" s="7"/>
       <c r="G124" s="7"/>
       <c t="s" r="H124" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I124" s="8"/>
       <c r="J124" s="8"/>
       <c r="K124" s="8"/>
       <c r="L124" s="9">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="M124" s="9"/>
       <c t="s" r="N124" s="7">
-        <v>42</v>
+        <v>163</v>
       </c>
     </row>
     <row r="125" ht="25.5" customHeight="1">
@@ -4275,17 +4278,17 @@
       <c r="F125" s="7"/>
       <c r="G125" s="7"/>
       <c t="s" r="H125" s="8">
-        <v>12</v>
+        <v>162</v>
       </c>
       <c r="I125" s="8"/>
       <c r="J125" s="8"/>
       <c r="K125" s="8"/>
       <c r="L125" s="9">
-        <v>190</v>
+        <v>22</v>
       </c>
       <c r="M125" s="9"/>
       <c t="s" r="N125" s="7">
-        <v>9</v>
+        <v>42</v>
       </c>
     </row>
     <row r="126" ht="24.75" customHeight="1">
@@ -4301,13 +4304,13 @@
       <c r="F126" s="7"/>
       <c r="G126" s="7"/>
       <c t="s" r="H126" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I126" s="8"/>
       <c r="J126" s="8"/>
       <c r="K126" s="8"/>
       <c r="L126" s="9">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="M126" s="9"/>
       <c t="s" r="N126" s="7">
@@ -4327,13 +4330,13 @@
       <c r="F127" s="7"/>
       <c r="G127" s="7"/>
       <c t="s" r="H127" s="8">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="I127" s="8"/>
       <c r="J127" s="8"/>
       <c r="K127" s="8"/>
       <c r="L127" s="9">
-        <v>85</v>
+        <v>150</v>
       </c>
       <c r="M127" s="9"/>
       <c t="s" r="N127" s="7">
@@ -4353,13 +4356,13 @@
       <c r="F128" s="7"/>
       <c r="G128" s="7"/>
       <c t="s" r="H128" s="8">
-        <v>168</v>
+        <v>44</v>
       </c>
       <c r="I128" s="8"/>
       <c r="J128" s="8"/>
       <c r="K128" s="8"/>
       <c r="L128" s="9">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="M128" s="9"/>
       <c t="s" r="N128" s="7">
@@ -4371,7 +4374,7 @@
         <v>126</v>
       </c>
       <c t="s" r="B129" s="7">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C129" s="7"/>
       <c r="D129" s="7"/>
@@ -4379,13 +4382,13 @@
       <c r="F129" s="7"/>
       <c r="G129" s="7"/>
       <c t="s" r="H129" s="8">
-        <v>9</v>
+        <v>169</v>
       </c>
       <c r="I129" s="8"/>
       <c r="J129" s="8"/>
       <c r="K129" s="8"/>
       <c r="L129" s="9">
-        <v>68.599999999999994</v>
+        <v>10</v>
       </c>
       <c r="M129" s="9"/>
       <c t="s" r="N129" s="7">
@@ -4405,13 +4408,13 @@
       <c r="F130" s="7"/>
       <c r="G130" s="7"/>
       <c t="s" r="H130" s="8">
-        <v>161</v>
+        <v>9</v>
       </c>
       <c r="I130" s="8"/>
       <c r="J130" s="8"/>
       <c r="K130" s="8"/>
       <c r="L130" s="9">
-        <v>15</v>
+        <v>68.599999999999994</v>
       </c>
       <c r="M130" s="9"/>
       <c t="s" r="N130" s="7">
@@ -4431,13 +4434,13 @@
       <c r="F131" s="7"/>
       <c r="G131" s="7"/>
       <c t="s" r="H131" s="8">
-        <v>44</v>
+        <v>162</v>
       </c>
       <c r="I131" s="8"/>
       <c r="J131" s="8"/>
       <c r="K131" s="8"/>
       <c r="L131" s="9">
-        <v>44.549999999999997</v>
+        <v>15</v>
       </c>
       <c r="M131" s="9"/>
       <c t="s" r="N131" s="7">
@@ -4457,13 +4460,13 @@
       <c r="F132" s="7"/>
       <c r="G132" s="7"/>
       <c t="s" r="H132" s="8">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I132" s="8"/>
       <c r="J132" s="8"/>
       <c r="K132" s="8"/>
       <c r="L132" s="9">
-        <v>20</v>
+        <v>44.549999999999997</v>
       </c>
       <c r="M132" s="9"/>
       <c t="s" r="N132" s="7">
@@ -4483,13 +4486,13 @@
       <c r="F133" s="7"/>
       <c r="G133" s="7"/>
       <c t="s" r="H133" s="8">
-        <v>174</v>
+        <v>12</v>
       </c>
       <c r="I133" s="8"/>
       <c r="J133" s="8"/>
       <c r="K133" s="8"/>
       <c r="L133" s="9">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M133" s="9"/>
       <c t="s" r="N133" s="7">
@@ -4501,7 +4504,7 @@
         <v>131</v>
       </c>
       <c t="s" r="B134" s="7">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C134" s="7"/>
       <c r="D134" s="7"/>
@@ -4509,51 +4512,77 @@
       <c r="F134" s="7"/>
       <c r="G134" s="7"/>
       <c t="s" r="H134" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="I134" s="8"/>
       <c r="J134" s="8"/>
       <c r="K134" s="8"/>
       <c r="L134" s="9">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="M134" s="9"/>
       <c t="s" r="N134" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135" ht="25.5" customHeight="1">
+      <c r="A135" s="6">
+        <v>132</v>
+      </c>
+      <c t="s" r="B135" s="7">
+        <v>176</v>
+      </c>
+      <c r="C135" s="7"/>
+      <c r="D135" s="7"/>
+      <c r="E135" s="7"/>
+      <c r="F135" s="7"/>
+      <c r="G135" s="7"/>
+      <c t="s" r="H135" s="8">
+        <v>175</v>
+      </c>
+      <c r="I135" s="8"/>
+      <c r="J135" s="8"/>
+      <c r="K135" s="8"/>
+      <c r="L135" s="9">
+        <v>70</v>
+      </c>
+      <c r="M135" s="9"/>
+      <c t="s" r="N135" s="7">
         <v>25</v>
       </c>
     </row>
-    <row r="135" ht="26.25" customHeight="1">
-      <c r="K135" s="10">
-        <v>7098.4099999999999</v>
-      </c>
-      <c r="L135" s="10"/>
-      <c r="M135" s="10"/>
-      <c r="N135" s="10"/>
-    </row>
-    <row r="136" ht="16.5" customHeight="1">
-      <c t="s" r="A136" s="11">
-        <v>176</v>
-      </c>
-      <c r="B136" s="11"/>
-      <c r="C136" s="11"/>
-      <c r="D136" s="11"/>
-      <c r="E136" s="11"/>
-      <c t="s" r="F136" s="12">
+    <row r="136" ht="25.5" customHeight="1">
+      <c r="K136" s="10">
+        <v>7194.4099999999999</v>
+      </c>
+      <c r="L136" s="10"/>
+      <c r="M136" s="10"/>
+      <c r="N136" s="10"/>
+    </row>
+    <row r="137" ht="16.5" customHeight="1">
+      <c t="s" r="A137" s="11">
         <v>177</v>
       </c>
-      <c r="G136" s="12"/>
-      <c r="H136" s="13"/>
-      <c t="s" r="I136" s="14">
+      <c r="B137" s="11"/>
+      <c r="C137" s="11"/>
+      <c r="D137" s="11"/>
+      <c r="E137" s="11"/>
+      <c t="s" r="F137" s="12">
         <v>178</v>
       </c>
-      <c r="J136" s="14"/>
-      <c r="K136" s="14"/>
-      <c r="L136" s="14"/>
-      <c r="M136" s="14"/>
-      <c r="N136" s="14"/>
+      <c r="G137" s="12"/>
+      <c r="H137" s="13"/>
+      <c t="s" r="I137" s="14">
+        <v>179</v>
+      </c>
+      <c r="J137" s="14"/>
+      <c r="K137" s="14"/>
+      <c r="L137" s="14"/>
+      <c r="M137" s="14"/>
+      <c r="N137" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="404">
+  <mergeCells count="407">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -4954,10 +4983,13 @@
     <mergeCell ref="B134:G134"/>
     <mergeCell ref="H134:K134"/>
     <mergeCell ref="L134:M134"/>
-    <mergeCell ref="K135:N135"/>
-    <mergeCell ref="A136:E136"/>
-    <mergeCell ref="F136:G136"/>
-    <mergeCell ref="I136:N136"/>
+    <mergeCell ref="B135:G135"/>
+    <mergeCell ref="H135:K135"/>
+    <mergeCell ref="L135:M135"/>
+    <mergeCell ref="K136:N136"/>
+    <mergeCell ref="A137:E137"/>
+    <mergeCell ref="F137:G137"/>
+    <mergeCell ref="I137:N137"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
